--- a/Mine.xlsx
+++ b/Mine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimchan-yeong/Desktop/EY AI Challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{901A0AE8-16FC-C64F-AF81-3F881175D5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89280E-C142-324C-8C4B-1FC22C345E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{87766305-EB8B-F840-AC7F-F53405ABF428}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="292">
   <si>
     <t>Region</t>
   </si>
@@ -798,6 +798,120 @@
   </si>
   <si>
     <t>https://www.dws.gov.za/iwqs/wms/data/W51/W51_189722.zip</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A23 188810</t>
+  </si>
+  <si>
+    <t>188810</t>
+  </si>
+  <si>
+    <t>Proklamasieheuwel Pretoria D/S Pta West Power Stn on Stormwater Channel to Skinner Spruit</t>
+  </si>
+  <si>
+    <t>Mineral Process Plant/Area</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>2006-03-13</t>
+  </si>
+  <si>
+    <t>2013-02-01</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>https://www.dws.gov.za/iwqs/wms/data/A23/A23_188810.zip</t>
+  </si>
+  <si>
+    <t>https://www.dws.gov.za/iwqs/wms/data/A_reg_WMS_nobor.htm</t>
+  </si>
+  <si>
+    <t>A23 188817</t>
+  </si>
+  <si>
+    <t>188817</t>
+  </si>
+  <si>
+    <t>Proklamasieheuwel Pretoria downstream of Iscor Works on Iscor Stream</t>
+  </si>
+  <si>
+    <t>2012-11-30</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>https://www.dws.gov.za/iwqs/wms/data/A23/A23_188817.zip</t>
+  </si>
+  <si>
+    <t>A22 100001001</t>
+  </si>
+  <si>
+    <t>1-1001</t>
+  </si>
+  <si>
+    <t>Imp 04 Runoff from the Area Between Smelter and Omnia</t>
+  </si>
+  <si>
+    <t>1999-01-05</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>https://www.dws.gov.za/iwqs/wms/data/A22/A22_100001001.zip</t>
+  </si>
+  <si>
+    <t>C12 100000366</t>
+  </si>
+  <si>
+    <t>1-366</t>
+  </si>
+  <si>
+    <t>EC205BD Sasol Secunda Blowdown to the Spruit</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>1998-01-05</t>
+  </si>
+  <si>
+    <t>2005-01-31</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>https://www.dws.gov.za/iwqs/wms/data/C12/C12_100000366.zip</t>
+  </si>
+  <si>
+    <t>C23 190949</t>
+  </si>
+  <si>
+    <t>190949</t>
+  </si>
+  <si>
+    <t>U/S Coetzee Dam Welverdiend 97 IQ Inflow to Coetzee Dam</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>2004-01-01</t>
+  </si>
+  <si>
+    <t>2007-12-01</t>
+  </si>
+  <si>
+    <t>https://www.dws.gov.za/iwqs/wms/data/C23/C23_190949.zip</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8BA871-1F2F-C348-991B-6BD56C1D8BA3}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,125 +1358,125 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="F2">
-        <v>-26.030280000000001</v>
+        <v>-25.749389999999998</v>
       </c>
       <c r="G2">
-        <v>29.33333</v>
+        <v>28.14658</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>260</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="F3">
-        <v>-26.066109999999998</v>
+        <v>-25.75019</v>
       </c>
       <c r="G3">
-        <v>29.48611</v>
+        <v>28.1355</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>262</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="F4">
-        <v>-26.10528</v>
+        <v>-25.32348</v>
       </c>
       <c r="G4">
-        <v>29.390560000000001</v>
+        <v>27.111049999999999</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1370,37 +1484,37 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5">
-        <v>-26.00778</v>
+        <v>-26.030280000000001</v>
       </c>
       <c r="G5">
-        <v>29.25056</v>
+        <v>29.33333</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
@@ -1411,37 +1525,37 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6">
-        <v>-26.164439999999999</v>
+        <v>-26.066109999999998</v>
       </c>
       <c r="G6">
-        <v>29.394169999999999</v>
+        <v>29.48611</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
         <v>23</v>
@@ -1452,37 +1566,37 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7">
-        <v>-26.16611</v>
+        <v>-26.10528</v>
       </c>
       <c r="G7">
-        <v>29.38861</v>
+        <v>29.390560000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
         <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
@@ -1493,37 +1607,37 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8">
-        <v>-26.20722</v>
+        <v>-26.00778</v>
       </c>
       <c r="G8">
-        <v>29.094999999999999</v>
+        <v>29.25056</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
         <v>23</v>
@@ -1534,37 +1648,37 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9">
-        <v>-25.835000000000001</v>
+        <v>-26.164439999999999</v>
       </c>
       <c r="G9">
-        <v>29.237500000000001</v>
+        <v>29.394169999999999</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
         <v>23</v>
@@ -1575,37 +1689,37 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10">
-        <v>-26.135999999999999</v>
+        <v>-26.16611</v>
       </c>
       <c r="G10">
-        <v>28.952380000000002</v>
+        <v>29.38861</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="M10" t="s">
         <v>23</v>
@@ -1613,125 +1727,125 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>-26.67</v>
+        <v>-26.20722</v>
       </c>
       <c r="G11">
-        <v>26.86917</v>
+        <v>29.094999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>-26.266670000000001</v>
+        <v>-25.835000000000001</v>
       </c>
       <c r="G12">
-        <v>27.733329999999999</v>
+        <v>29.237500000000001</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="M12" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>-26.266670000000001</v>
+        <v>-26.135999999999999</v>
       </c>
       <c r="G13">
-        <v>27.733329999999999</v>
+        <v>28.952380000000002</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1739,37 +1853,37 @@
         <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="F14">
-        <v>-26.266670000000001</v>
+        <v>-26.565829999999998</v>
       </c>
       <c r="G14">
-        <v>27.733329999999999</v>
+        <v>29.163889999999999</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="L14" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="M14" t="s">
         <v>91</v>
@@ -1780,37 +1894,37 @@
         <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
         <v>85</v>
       </c>
       <c r="F15">
-        <v>-26.266670000000001</v>
+        <v>-26.67</v>
       </c>
       <c r="G15">
-        <v>27.733329999999999</v>
+        <v>26.86917</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s">
         <v>91</v>
@@ -1821,37 +1935,37 @@
         <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
         <v>85</v>
       </c>
       <c r="F16">
-        <v>-27.072220000000002</v>
+        <v>-26.266670000000001</v>
       </c>
       <c r="G16">
-        <v>26.77</v>
+        <v>27.733329999999999</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M16" t="s">
         <v>91</v>
@@ -1862,37 +1976,37 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F17">
-        <v>-26.359719999999999</v>
+        <v>-26.266670000000001</v>
       </c>
       <c r="G17">
-        <v>27.70139</v>
+        <v>27.733329999999999</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="M17" t="s">
         <v>91</v>
@@ -1903,37 +2017,37 @@
         <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F18">
-        <v>-26.25056</v>
+        <v>-26.266670000000001</v>
       </c>
       <c r="G18">
-        <v>28.49222</v>
+        <v>27.733329999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="M18" t="s">
         <v>91</v>
@@ -1944,37 +2058,37 @@
         <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
         <v>85</v>
       </c>
       <c r="F19">
-        <v>-26.363610000000001</v>
+        <v>-26.266670000000001</v>
       </c>
       <c r="G19">
-        <v>27.47278</v>
+        <v>27.733329999999999</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="J19" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="K19" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="M19" t="s">
         <v>91</v>
@@ -1985,37 +2099,37 @@
         <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F20">
-        <v>-26.225280000000001</v>
+        <v>-27.072220000000002</v>
       </c>
       <c r="G20">
-        <v>28.422219999999999</v>
+        <v>26.77</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="M20" t="s">
         <v>91</v>
@@ -2026,37 +2140,37 @@
         <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21">
-        <v>-26.25056</v>
+        <v>-26.359719999999999</v>
       </c>
       <c r="G21">
-        <v>28.488890000000001</v>
+        <v>27.70139</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="K21" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="M21" t="s">
         <v>91</v>
@@ -2067,37 +2181,37 @@
         <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22">
-        <v>-26.425000000000001</v>
+        <v>-26.25056</v>
       </c>
       <c r="G22">
-        <v>27.345559999999999</v>
+        <v>28.49222</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="M22" t="s">
         <v>91</v>
@@ -2108,37 +2222,37 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
         <v>85</v>
       </c>
       <c r="F23">
-        <v>-26.39</v>
+        <v>-26.363610000000001</v>
       </c>
       <c r="G23">
-        <v>27.32</v>
+        <v>27.47278</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="J23" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s">
         <v>91</v>
@@ -2149,37 +2263,37 @@
         <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24">
-        <v>-26.38861</v>
+        <v>-26.225280000000001</v>
       </c>
       <c r="G24">
-        <v>27.392779999999998</v>
+        <v>28.422219999999999</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="J24" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s">
         <v>91</v>
@@ -2190,37 +2304,37 @@
         <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25">
-        <v>-26.419419999999999</v>
+        <v>-26.25056</v>
       </c>
       <c r="G25">
-        <v>27.406580000000002</v>
+        <v>28.488890000000001</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K25" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="M25" t="s">
         <v>91</v>
@@ -2231,37 +2345,37 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
       </c>
       <c r="F26">
-        <v>-26.419720000000002</v>
+        <v>-26.425000000000001</v>
       </c>
       <c r="G26">
-        <v>27.689640000000001</v>
+        <v>27.345559999999999</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="I26" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="J26" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="K26" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="M26" t="s">
         <v>91</v>
@@ -2272,37 +2386,37 @@
         <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F27">
-        <v>-27.675180000000001</v>
+        <v>-26.39</v>
       </c>
       <c r="G27">
-        <v>27.218060000000001</v>
+        <v>27.32</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="L27" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s">
         <v>91</v>
@@ -2310,248 +2424,248 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
       </c>
       <c r="F28">
-        <v>-27.726669999999999</v>
+        <v>-26.38861</v>
       </c>
       <c r="G28">
-        <v>22.988330000000001</v>
+        <v>27.392779999999998</v>
       </c>
       <c r="H28" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="I28" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="J28" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="M28" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
       <c r="F29">
-        <v>-27.723559999999999</v>
+        <v>-26.419419999999999</v>
       </c>
       <c r="G29">
-        <v>30.94622</v>
+        <v>27.406580000000002</v>
       </c>
       <c r="H29" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="J29" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="K29" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="M29" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="F30">
-        <v>-27.82142</v>
+        <v>-26.370290000000001</v>
       </c>
       <c r="G30">
-        <v>30.937390000000001</v>
+        <v>27.25346</v>
       </c>
       <c r="H30" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="I30" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
       </c>
       <c r="F31">
-        <v>-27.8125</v>
+        <v>-26.419720000000002</v>
       </c>
       <c r="G31">
-        <v>31.091670000000001</v>
+        <v>27.689640000000001</v>
       </c>
       <c r="H31" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="K31" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="M31" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
       </c>
       <c r="F32">
-        <v>-27.83333</v>
+        <v>-27.675180000000001</v>
       </c>
       <c r="G32">
-        <v>31.120830000000002</v>
+        <v>27.218060000000001</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="K32" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="M32" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-27.545829999999999</v>
+        <v>-27.726669999999999</v>
       </c>
       <c r="G33">
-        <v>30.679169999999999</v>
+        <v>22.988330000000001</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="K33" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="L33" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="M33" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2559,37 +2673,37 @@
         <v>204</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="E34" t="s">
         <v>17</v>
       </c>
       <c r="F34">
-        <v>-27.48489</v>
+        <v>-27.723559999999999</v>
       </c>
       <c r="G34">
-        <v>30.686170000000001</v>
+        <v>30.94622</v>
       </c>
       <c r="H34" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="J34" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="M34" t="s">
         <v>213</v>
@@ -2600,39 +2714,244 @@
         <v>204</v>
       </c>
       <c r="B35" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
       </c>
       <c r="F35">
+        <v>-27.82142</v>
+      </c>
+      <c r="G35">
+        <v>30.937390000000001</v>
+      </c>
+      <c r="H35" t="s">
+        <v>217</v>
+      </c>
+      <c r="I35" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" t="s">
+        <v>217</v>
+      </c>
+      <c r="L35" t="s">
+        <v>218</v>
+      </c>
+      <c r="M35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <v>-27.8125</v>
+      </c>
+      <c r="G36">
+        <v>31.091670000000001</v>
+      </c>
+      <c r="H36" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" t="s">
+        <v>223</v>
+      </c>
+      <c r="J36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37">
+        <v>-27.83333</v>
+      </c>
+      <c r="G37">
+        <v>31.120830000000002</v>
+      </c>
+      <c r="H37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" t="s">
+        <v>223</v>
+      </c>
+      <c r="J37" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" t="s">
+        <v>229</v>
+      </c>
+      <c r="L37" t="s">
+        <v>230</v>
+      </c>
+      <c r="M37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <v>-27.545829999999999</v>
+      </c>
+      <c r="G38">
+        <v>30.679169999999999</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" t="s">
+        <v>235</v>
+      </c>
+      <c r="K38" t="s">
+        <v>236</v>
+      </c>
+      <c r="L38" t="s">
+        <v>237</v>
+      </c>
+      <c r="M38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>-27.48489</v>
+      </c>
+      <c r="G39">
+        <v>30.686170000000001</v>
+      </c>
+      <c r="H39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" t="s">
+        <v>245</v>
+      </c>
+      <c r="M39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40">
         <v>-27.030159999999999</v>
       </c>
-      <c r="G35">
+      <c r="G40">
         <v>30.399239999999999</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H40" t="s">
         <v>249</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I40" t="s">
         <v>250</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J40" t="s">
         <v>251</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K40" t="s">
         <v>252</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L40" t="s">
         <v>253</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M40" t="s">
         <v>213</v>
       </c>
     </row>
